--- a/tests/data/input/一级测试用例-16001.xlsx
+++ b/tests/data/input/一级测试用例-16001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E81E92-7C30-4A28-9562-E2A541A2B2FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,9 +726,6 @@
 info_court_excute_public.execute_content[2]="执行标的金额(万元):0.1"</t>
   </si>
   <si>
-    <t>court_pub_info_max=4000</t>
-  </si>
-  <si>
     <t>court_pub_info_max=0</t>
   </si>
   <si>
@@ -754,18 +757,16 @@
   <si>
     <t>court_judge_max=0</t>
   </si>
+  <si>
+    <t>court_pub_info_max=4500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,151 +781,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,198 +796,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1160,251 +837,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1440,61 +875,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1752,29 +1143,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
-    <col min="6" max="6" width="22.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="42.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.08984375" customWidth="1"/>
+    <col min="7" max="7" width="42.90625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="67.5" spans="1:9">
+    <row r="2" spans="1:10" ht="70" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1831,7 +1222,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" customFormat="1" ht="27" spans="1:9">
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1854,7 +1245,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" customFormat="1" ht="40.5" spans="1:9">
+    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1879,7 +1270,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" customFormat="1" ht="27" spans="1:9">
+    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1902,7 +1293,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" customFormat="1" ht="40.5" spans="1:9">
+    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1927,7 +1318,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" customFormat="1" ht="27" spans="1:9">
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1950,7 +1341,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" customFormat="1" ht="54" spans="1:9">
+    <row r="8" spans="1:10" ht="56" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1975,7 +1366,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" customFormat="1" ht="27" spans="1:9">
+    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1998,7 +1389,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" customFormat="1" ht="40.5" spans="1:9">
+    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2023,7 +1414,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" customFormat="1" ht="27" spans="1:9">
+    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2046,7 +1437,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" customFormat="1" ht="40.5" spans="1:9">
+    <row r="12" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2071,7 +1462,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" customFormat="1" ht="27" spans="1:9">
+    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2094,7 +1485,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" customFormat="1" ht="40.5" spans="1:9">
+    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2119,7 +1510,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" customFormat="1" ht="27" spans="1:9">
+    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2142,7 +1533,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" customFormat="1" ht="40.5" spans="1:9">
+    <row r="16" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2167,7 +1558,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" customFormat="1" ht="27" spans="1:9">
+    <row r="17" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2190,7 +1581,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" customFormat="1" ht="40.5" spans="1:9">
+    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2215,7 +1606,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" customFormat="1" ht="27" spans="1:9">
+    <row r="19" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2238,7 +1629,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" customFormat="1" ht="40.5" spans="1:9">
+    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2263,7 +1654,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" customFormat="1" ht="27" spans="1:9">
+    <row r="21" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2286,7 +1677,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" customFormat="1" ht="40.5" spans="1:9">
+    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2311,7 +1702,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" customFormat="1" ht="27" spans="1:9">
+    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2334,7 +1725,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" customFormat="1" ht="135" spans="1:9">
+    <row r="24" spans="1:9" ht="140" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2359,7 +1750,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" customFormat="1" ht="40.5" spans="1:9">
+    <row r="25" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2382,7 +1773,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" customFormat="1" ht="175.5" spans="1:9">
+    <row r="26" spans="1:9" ht="182" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2407,7 +1798,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" customFormat="1" ht="40.5" spans="1:9">
+    <row r="27" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2430,7 +1821,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" customFormat="1" ht="175.5" spans="1:9">
+    <row r="28" spans="1:9" ht="182" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2455,7 +1846,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" customFormat="1" ht="40.5" spans="1:9">
+    <row r="29" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2478,7 +1869,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" customFormat="1" ht="135" spans="1:9">
+    <row r="30" spans="1:9" ht="140" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2503,7 +1894,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" customFormat="1" ht="40.5" spans="1:9">
+    <row r="31" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2526,7 +1917,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" customFormat="1" ht="40.5" spans="1:9">
+    <row r="32" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2551,7 +1942,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" customFormat="1" ht="81" spans="1:9">
+    <row r="33" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2576,7 +1967,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" customFormat="1" ht="81" spans="1:9">
+    <row r="34" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2601,7 +1992,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" customFormat="1" ht="81" spans="1:9">
+    <row r="35" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2626,7 +2017,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" customFormat="1" ht="81" spans="1:9">
+    <row r="36" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2651,7 +2042,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" customFormat="1" ht="40.5" spans="1:9">
+    <row r="37" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2676,7 +2067,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" customFormat="1" ht="67.5" spans="1:9">
+    <row r="38" spans="1:9" ht="70" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2701,7 +2092,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" customFormat="1" ht="67.5" spans="1:9">
+    <row r="39" spans="1:9" ht="70" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2726,7 +2117,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" customFormat="1" ht="67.5" spans="1:9">
+    <row r="40" spans="1:9" ht="70" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2751,7 +2142,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" customFormat="1" ht="54" spans="1:9">
+    <row r="41" spans="1:9" ht="56" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2776,7 +2167,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" customFormat="1" ht="94.5" spans="1:9">
+    <row r="42" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2801,7 +2192,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" customFormat="1" ht="94.5" spans="1:9">
+    <row r="43" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2826,7 +2217,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" customFormat="1" ht="81" spans="1:9">
+    <row r="44" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2851,7 +2242,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" customFormat="1" ht="81" spans="1:9">
+    <row r="45" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2876,7 +2267,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" customFormat="1" ht="94.5" spans="1:9">
+    <row r="46" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -2901,7 +2292,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" customFormat="1" ht="94.5" spans="1:9">
+    <row r="47" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -2926,7 +2317,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" customFormat="1" ht="81" spans="1:9">
+    <row r="48" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -2951,7 +2342,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" customFormat="1" ht="81" spans="1:9">
+    <row r="49" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -2976,7 +2367,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" customFormat="1" ht="94.5" spans="1:9">
+    <row r="50" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -3001,7 +2392,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" customFormat="1" ht="94.5" spans="1:9">
+    <row r="51" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -3026,7 +2417,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" customFormat="1" ht="81" spans="1:9">
+    <row r="52" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -3051,7 +2442,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" customFormat="1" ht="81" spans="1:9">
+    <row r="53" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -3076,7 +2467,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" customFormat="1" ht="40.5" spans="1:9">
+    <row r="54" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -3101,7 +2492,7 @@
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" customFormat="1" ht="40.5" spans="1:9">
+    <row r="55" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -3124,7 +2515,7 @@
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" customFormat="1" ht="94.5" spans="1:9">
+    <row r="56" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -3149,7 +2540,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" customFormat="1" ht="94.5" spans="1:9">
+    <row r="57" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>57</v>
       </c>
@@ -3167,14 +2558,14 @@
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" customFormat="1" ht="40.5" spans="1:9">
+    <row r="58" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>58</v>
       </c>
@@ -3190,14 +2581,14 @@
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" customFormat="1" ht="94.5" spans="1:9">
+    <row r="59" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>59</v>
       </c>
@@ -3205,24 +2596,24 @@
         <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" customFormat="1" ht="40.5" spans="1:9">
+    <row r="60" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>60</v>
       </c>
@@ -3230,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>57</v>
@@ -3238,14 +2629,14 @@
       <c r="E60" s="6"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" customFormat="1" ht="40.5" spans="1:9">
+    <row r="61" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>61</v>
       </c>
@@ -3253,24 +2644,24 @@
         <v>10</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" customFormat="1" ht="40.5" spans="1:9">
+    <row r="62" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>62</v>
       </c>
@@ -3278,7 +2669,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>57</v>
@@ -3286,7 +2677,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>15</v>
@@ -3294,7 +2685,8 @@
       <c r="I62" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/data/input/一级测试用例-16001.xlsx
+++ b/tests/data/input/一级测试用例-16001.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E81E92-7C30-4A28-9562-E2A541A2B2FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +382,7 @@
   </si>
   <si>
     <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
   </si>
   <si>
     <t>info_court_tax_arrears.court_id;
@@ -726,6 +720,9 @@
 info_court_excute_public.execute_content[2]="执行标的金额(万元):0.1"</t>
   </si>
   <si>
+    <t>court_pub_info_max=4500</t>
+  </si>
+  <si>
     <t>court_pub_info_max=0</t>
   </si>
   <si>
@@ -757,16 +754,18 @@
   <si>
     <t>court_judge_max=0</t>
   </si>
-  <si>
-    <t>court_pub_info_max=4500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,13 +780,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,12 +933,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -837,9 +1160,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,17 +1440,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1143,29 +1752,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
-    <col min="7" max="7" width="42.90625" customWidth="1"/>
+    <col min="4" max="4" width="30.725" customWidth="1"/>
+    <col min="5" max="5" width="49.45" customWidth="1"/>
+    <col min="6" max="6" width="22.0916666666667" customWidth="1"/>
+    <col min="7" max="7" width="42.9083333333333" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="70" x14ac:dyDescent="0.25">
+    <row r="2" ht="67.5" spans="1:9">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1222,7 +1831,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" ht="27" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1245,7 +1854,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" ht="40.5" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1270,7 +1879,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+    <row r="5" ht="27" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1293,7 +1902,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" ht="40.5" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1318,7 +1927,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" ht="27" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1341,7 +1950,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="56" x14ac:dyDescent="0.25">
+    <row r="8" ht="54" spans="1:9">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1366,7 +1975,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" ht="27" spans="1:9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1389,7 +1998,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" ht="40.5" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1414,7 +2023,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+    <row r="11" ht="27" spans="1:9">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1437,7 +2046,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="12" ht="40.5" spans="1:9">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1462,7 +2071,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+    <row r="13" ht="27" spans="1:9">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1485,7 +2094,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="14" ht="40.5" spans="1:9">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1510,7 +2119,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+    <row r="15" ht="27" spans="1:9">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1533,7 +2142,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="16" ht="40.5" spans="1:9">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1558,7 +2167,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="17" ht="27" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1581,7 +2190,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="18" ht="40.5" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1606,7 +2215,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="19" ht="27" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1629,7 +2238,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="20" ht="40.5" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1654,7 +2263,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="21" ht="27" spans="1:9">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1677,7 +2286,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="22" ht="40.5" spans="1:9">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1702,7 +2311,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="23" ht="27" spans="1:9">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1725,7 +2334,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="140" x14ac:dyDescent="0.25">
+    <row r="24" ht="135" spans="1:9">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1750,7 +2359,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="25" ht="40.5" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1773,7 +2382,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="182" x14ac:dyDescent="0.25">
+    <row r="26" ht="175.5" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1798,7 +2407,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="27" ht="40.5" spans="1:9">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1821,7 +2430,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="182" x14ac:dyDescent="0.25">
+    <row r="28" ht="175.5" spans="1:9">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1846,7 +2455,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="29" ht="40.5" spans="1:9">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1869,7 +2478,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="140" x14ac:dyDescent="0.25">
+    <row r="30" ht="135" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1894,7 +2503,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="31" ht="40.5" spans="1:9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1917,7 +2526,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="32" ht="40.5" spans="1:9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1942,7 +2551,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="33" ht="81" spans="1:9">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1967,7 +2576,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="34" ht="81" spans="1:9">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1992,7 +2601,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="35" ht="81" spans="1:9">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2017,7 +2626,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="36" ht="81" spans="1:9">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2042,7 +2651,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="37" ht="40.5" spans="1:9">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2067,7 +2676,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="70" x14ac:dyDescent="0.25">
+    <row r="38" ht="67.5" spans="1:9">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2092,7 +2701,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="70" x14ac:dyDescent="0.25">
+    <row r="39" ht="67.5" spans="1:9">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2117,7 +2726,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="70" x14ac:dyDescent="0.25">
+    <row r="40" ht="67.5" spans="1:9">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2142,7 +2751,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="56" x14ac:dyDescent="0.25">
+    <row r="41" ht="54" spans="1:9">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2167,7 +2776,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="42" ht="94.5" spans="1:9">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2192,7 +2801,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="43" ht="94.5" spans="1:9">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2217,7 +2826,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="44" ht="81" spans="1:9">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2242,7 +2851,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="45" ht="81" spans="1:9">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2267,7 +2876,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="46" ht="94.5" spans="1:9">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -2292,7 +2901,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="47" ht="94.5" spans="1:9">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -2317,7 +2926,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="48" ht="81" spans="1:9">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -2342,7 +2951,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="49" ht="81" spans="1:9">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -2367,7 +2976,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="50" ht="94.5" spans="1:9">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -2392,7 +3001,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="51" ht="94.5" spans="1:9">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -2417,7 +3026,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="52" ht="81" spans="1:9">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -2442,7 +3051,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="53" ht="81" spans="1:9">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -2467,7 +3076,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="54" ht="40.5" spans="1:9">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -2492,7 +3101,7 @@
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="55" ht="40.5" spans="1:9">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -2515,7 +3124,7 @@
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="56" ht="94.5" spans="1:9">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -2540,7 +3149,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="57" ht="94.5" spans="1:9">
       <c r="A57" s="4">
         <v>57</v>
       </c>
@@ -2558,14 +3167,14 @@
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="58" ht="40.5" spans="1:9">
       <c r="A58" s="4">
         <v>58</v>
       </c>
@@ -2581,14 +3190,14 @@
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="59" ht="94.5" spans="1:9">
       <c r="A59" s="4">
         <v>59</v>
       </c>
@@ -2596,24 +3205,24 @@
         <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="60" ht="40.5" spans="1:9">
       <c r="A60" s="4">
         <v>60</v>
       </c>
@@ -2621,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>57</v>
@@ -2629,14 +3238,14 @@
       <c r="E60" s="6"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="61" ht="40.5" spans="1:9">
       <c r="A61" s="4">
         <v>61</v>
       </c>
@@ -2644,24 +3253,24 @@
         <v>10</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="62" ht="40.5" spans="1:9">
       <c r="A62" s="4">
         <v>62</v>
       </c>
@@ -2669,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>57</v>
@@ -2677,7 +3286,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>15</v>
@@ -2685,8 +3294,8 @@
       <c r="I62" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>